--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$146</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5436" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5328" uniqueCount="608">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-01-10T15:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -505,7 +505,7 @@
     <t>Questionnaire is modular</t>
   </si>
   <si>
-    <t>If present, indicates that this is a 'modular' questionnaire that requires some degree of assembly (e.g. using the [$assemble](http://hl7.org/fhir/uv/sdc/OperationDefinition/Questionnaire-assemble) operation) prior to being presented in a Form Filler.  This might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](https://build.fhir.org/ig/HL7/sdc/StructureDefinition-sdc-questionnaire.html/StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
+    <t>If present, indicates that this is a 'modular' questionnaire that requires some degree of assembly (e.g. using the [$assemble](http://hl7.org/fhir/uv/sdc/OperationDefinition/Questionnaire-assemble) operation) prior to being presented in a Form Filler.  This might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
   </si>
   <si>
     <t>SDC-conformant Questionnaires **SHALL** declare this extension if they require an assembly process prior to use.</t>
@@ -550,7 +550,7 @@
     <t>Establishes mapping context for a Questionnaire item</t>
   </si>
   <si>
-    <t>Specifies a query that identifies the resource (or set of resources for a repeating item) that should be used to support the population of this Questionnaire or Questionnaire.item on initial population.  When populating the questionnaire, it will set the specified variable name to that resource repetition for use in processing items within the group.</t>
+    <t>Specifies a query or other expression that identifies the resource (or set of resources for a repeating item) that should be used to support the population of this Questionnaire or Questionnaire.item on initial population.  When populating the questionnaire, it will set the specified variable name to that resource repetition for use in processing items within the group.</t>
   </si>
   <si>
     <t>variable</t>
@@ -1104,7 +1104,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}sdc-2:A choiceConstraint is only valid if item has a list of choice options (with an answerValueSet, answerExpression or at least one answerOption listed). {choiceConstraint.empty() or (answerValueSet.empty().not() or answerOption.empty().not() or extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not)}sdc-1:An item cannot have an answerExpression if answerOption or answerValueSet is already present. {extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not() implies (answerOption.empty() and answerValueSet.empty())}sdc-pop-1:An item cannot have both initial.value and initialExpression {initial.empty() or extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-initialExpression').empty()}</t>
+que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}sdc-1:An item cannot have an answerExpression if answerOption or answerValueSet is already present. {extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not() implies (answerOption.empty() and answerValueSet.empty())}sdc-pop-1:An item cannot have both initial.value and initialExpression {initial.empty() or extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-initialExpression').empty()}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=OBS, moodCode=DEF]</t>
@@ -1132,64 +1132,6 @@
   </si>
   <si>
     <t>Allows capture of todos, rationale for design decisions, etc.  It can also be used to capture comments about specific groups or questions within it. Allows commentary to be captured during the process of answering a questionnaire (if not already supported by the form design) as well as after the form is completed. Comments are not part of the "data" of the form. If a form prompts for a comment, this should be captured in an answer, not in this element. Formal assessments of the QuestionnareResponse would use [[[Observation]]].</t>
-  </si>
-  <si>
-    <t>answerExpression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression}
-</t>
-  </si>
-  <si>
-    <t>Expression for possible answers</t>
-  </si>
-  <si>
-    <t>An expression (FHIRPath, CQL or FHIR Query) that resolves to a list of permitted answers for the question item or that establishes context for a group item.  The user may select from among the list to choose answers for the question.</t>
-  </si>
-  <si>
-    <t>This is only permitted when the containing item does NOT have any answerOption or answerValueSet elements. The results of the expression must correspond to the item type of the question the element appears on or must correspond to a resource, backbone element or complex data type for a group item.  Resources are considered a match for the Reference item type.  Quantity can be a match for decimal and integer items so long as a questionnaire-unit extension is present.</t>
-  </si>
-  <si>
-    <t>choiceConstraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-choiceConstraint}
-</t>
-  </si>
-  <si>
-    <t>optionsOnly | optionOrType | optionOrString</t>
-  </si>
-  <si>
-    <t>Controls what the user is allowed to enter as an answer aside from the answer options provided. NOTE: This extension should be moved to core in R5.</t>
-  </si>
-  <si>
-    <t>This element is useful for questions with "Other" textbox or comment field. It allows users to either provide an alternative answer (if any of the answer options do not apply to them)  or offer additional information about their choice.</t>
-  </si>
-  <si>
-    <t>UnitOpen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-unitOpen}
-</t>
-  </si>
-  <si>
-    <t>Used to denote if user can specify alternate codes</t>
-  </si>
-  <si>
-    <t>Indicates whether the list of supported units (conveyed in other extensions) are the exhaustive list from which the user must choose or whether they're able to select alternate codes or specify a string.</t>
-  </si>
-  <si>
-    <t>UnitSupplementalSystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-unitSupplementalSystem}
-</t>
-  </si>
-  <si>
-    <t>This extension indicates the code system the additional units are drawn from</t>
-  </si>
-  <si>
-    <t>If the questionnaire-unit-open extension indicates that additional units other than the set of options provided for the question are allowed, this indicates the code system those units are expected to be drawn from.  This extension SHOULD be present on any question where questionare-unit-open allows additional coded values.</t>
   </si>
   <si>
     <t>unit</t>
@@ -1237,6 +1179,9 @@
 </t>
   </si>
   <si>
+    <t>Expression for possible answers</t>
+  </si>
+  <si>
     <t>A FHIRPath or CQL expression, or FHIR Query that resolves to a list of candidate answers for the question item or that establishes context for a group item.  The user may select from among the candidates to choose answers for the question.</t>
   </si>
   <si>
@@ -1383,6 +1328,25 @@
     <t>choiceColumn</t>
   </si>
   <si>
+    <t>isSubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-isSubject}
+</t>
+  </si>
+  <si>
+    <t>Marks that this item identifies a different subject</t>
+  </si>
+  <si>
+    <t>If present and true, indicates that the item establishes a different subject for the group in a response.</t>
+  </si>
+  <si>
+    <t>The item type must be "reference" and there can only be one item with this extension in each group.</t>
+  </si>
+  <si>
+    <t>Allows the population process to leverage the fact that the subject for this group and descendants is distinct</t>
+  </si>
+  <si>
     <t>extractionContext</t>
   </si>
   <si>
@@ -1390,7 +1354,7 @@
 </t>
   </si>
   <si>
-    <t>Specifies a query that identifies the resource (or set of resources for a repeating item)  to be extracted from this item once the QuestionnaireResponse is complete.</t>
+    <t>Specifies a query or other expression that identifies the resource (or set of resources for a repeating item)  to be extracted from this item once the QuestionnaireResponse is complete.</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>
@@ -2274,7 +2238,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN149"/>
+  <dimension ref="A1:AN146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2284,7 +2248,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="56.8515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.09765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -6811,7 +6775,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>79</v>
@@ -7464,7 +7428,7 @@
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>137</v>
@@ -7473,7 +7437,7 @@
         <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
@@ -7490,7 +7454,7 @@
         <v>355</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>80</v>
@@ -7512,17 +7476,15 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>364</v>
+        <v>168</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>365</v>
+        <v>169</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>80</v>
@@ -7580,7 +7542,7 @@
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>137</v>
@@ -7606,7 +7568,7 @@
         <v>355</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>80</v>
@@ -7616,7 +7578,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
@@ -7628,15 +7590,17 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>369</v>
+        <v>172</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>370</v>
+        <v>173</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7694,7 +7658,7 @@
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>137</v>
@@ -7720,7 +7684,7 @@
         <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>80</v>
@@ -7742,15 +7706,17 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7808,7 +7774,7 @@
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>137</v>
@@ -7829,12 +7795,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>355</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>80</v>
@@ -7847,7 +7813,7 @@
         <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7856,16 +7822,16 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7933,7 +7899,7 @@
         <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7945,12 +7911,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>355</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>167</v>
+        <v>375</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>80</v>
@@ -7960,10 +7926,10 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7972,13 +7938,13 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>168</v>
+        <v>376</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>169</v>
+        <v>377</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>170</v>
+        <v>378</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8061,11 +8027,9 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8074,7 +8038,7 @@
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>80</v>
@@ -8086,17 +8050,15 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>173</v>
+        <v>351</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -8145,25 +8107,25 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -8177,20 +8139,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>80</v>
@@ -8202,16 +8162,16 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>384</v>
+        <v>131</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>387</v>
+        <v>180</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8249,16 +8209,16 @@
         <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>356</v>
@@ -8279,7 +8239,7 @@
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -8293,17 +8253,17 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>86</v>
@@ -8318,17 +8278,15 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>389</v>
+        <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8409,11 +8367,9 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8422,7 +8378,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>80</v>
@@ -8434,13 +8390,13 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>393</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8491,25 +8447,25 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -8523,18 +8479,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -8546,15 +8502,17 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8591,31 +8549,31 @@
         <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>80</v>
@@ -8635,18 +8593,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>80</v>
@@ -8658,17 +8616,15 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8705,31 +8661,31 @@
         <v>80</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>80</v>
@@ -8749,20 +8705,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -8777,12 +8731,14 @@
         <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8819,16 +8775,16 @@
         <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>356</v>
@@ -8849,7 +8805,7 @@
         <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
@@ -8863,7 +8819,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8871,7 +8827,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>86</v>
@@ -8886,15 +8842,17 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -8943,10 +8901,10 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
@@ -8961,7 +8919,7 @@
         <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
@@ -8975,18 +8933,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>80</v>
@@ -8998,7 +8956,7 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>131</v>
+        <v>397</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>398</v>
@@ -9006,9 +8964,7 @@
       <c r="L59" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -9045,37 +9001,37 @@
         <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AC59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
@@ -9089,7 +9045,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9097,7 +9053,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>86</v>
@@ -9112,22 +9068,24 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>80</v>
@@ -9169,10 +9127,10 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>86</v>
@@ -9187,7 +9145,7 @@
         <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -9201,18 +9159,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>80</v>
@@ -9224,7 +9182,7 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>398</v>
@@ -9232,9 +9190,7 @@
       <c r="L61" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9271,37 +9227,37 @@
         <v>80</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="AB61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE61" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AC61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
@@ -9315,9 +9271,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9338,17 +9296,15 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9397,25 +9353,25 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9429,7 +9385,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9452,13 +9408,13 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>414</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>416</v>
+        <v>352</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9509,7 +9465,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>417</v>
+        <v>353</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9521,13 +9477,13 @@
         <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>129</v>
+        <v>354</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9541,18 +9497,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -9564,16 +9520,16 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>411</v>
+        <v>180</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9581,7 +9537,7 @@
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>80</v>
@@ -9611,37 +9567,37 @@
         <v>80</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>129</v>
+        <v>354</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
@@ -9655,7 +9611,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9663,7 +9619,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>86</v>
@@ -9681,10 +9637,10 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>416</v>
+        <v>352</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9735,7 +9691,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>417</v>
+        <v>353</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9747,13 +9703,13 @@
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>129</v>
+        <v>354</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
@@ -9767,20 +9723,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9795,12 +9749,14 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>80</v>
@@ -9837,16 +9793,16 @@
         <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AE66" t="s" s="2">
         <v>356</v>
@@ -9867,7 +9823,7 @@
         <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
@@ -9881,7 +9837,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9889,7 +9845,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>86</v>
@@ -9904,15 +9860,17 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -9961,10 +9919,10 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>86</v>
@@ -9979,7 +9937,7 @@
         <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
@@ -9993,18 +9951,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>80</v>
@@ -10016,7 +9974,7 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>131</v>
+        <v>397</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>398</v>
@@ -10024,9 +9982,7 @@
       <c r="L68" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>80</v>
@@ -10063,37 +10019,37 @@
         <v>80</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
@@ -10107,7 +10063,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10115,7 +10071,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>86</v>
@@ -10130,22 +10086,24 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>80</v>
+        <v>403</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>80</v>
@@ -10187,10 +10145,10 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>86</v>
@@ -10205,7 +10163,7 @@
         <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
@@ -10219,18 +10177,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>80</v>
@@ -10242,7 +10200,7 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>131</v>
+        <v>406</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>398</v>
@@ -10250,9 +10208,7 @@
       <c r="L70" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -10289,37 +10245,37 @@
         <v>80</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -10333,18 +10289,20 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>80</v>
@@ -10356,16 +10314,16 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>100</v>
+        <v>407</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10415,25 +10373,25 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
@@ -10447,7 +10405,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10455,7 +10413,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>86</v>
@@ -10470,22 +10428,24 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>414</v>
+        <v>100</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>80</v>
@@ -10527,10 +10487,10 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>86</v>
@@ -10539,7 +10499,7 @@
         <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>80</v>
@@ -10559,7 +10519,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10567,10 +10527,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>80</v>
@@ -10582,24 +10542,22 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>100</v>
+        <v>397</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>80</v>
@@ -10641,10 +10599,10 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>86</v>
@@ -10653,7 +10611,7 @@
         <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>80</v>
@@ -10673,15 +10631,17 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B74" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="C74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>86</v>
@@ -10696,15 +10656,17 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>80</v>
@@ -10753,25 +10715,25 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>417</v>
+        <v>356</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
@@ -10785,10 +10747,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>80</v>
@@ -10810,16 +10772,16 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10901,15 +10863,17 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B76" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="C76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>86</v>
@@ -10924,24 +10888,26 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>100</v>
+        <v>421</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="R76" t="s" s="2">
         <v>80</v>
@@ -10983,25 +10949,25 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
@@ -11015,9 +10981,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="C77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11026,7 +10994,7 @@
         <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>80</v>
@@ -11038,13 +11006,13 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>415</v>
+        <v>169</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11095,25 +11063,25 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>417</v>
+        <v>356</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>80</v>
@@ -11127,43 +11095,43 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="K78" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="M78" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11211,7 +11179,7 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>356</v>
+        <v>433</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11229,7 +11197,7 @@
         <v>80</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>80</v>
@@ -11241,25 +11209,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
@@ -11268,18 +11234,20 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>424</v>
+        <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11327,25 +11295,25 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>356</v>
+        <v>434</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>80</v>
@@ -11359,11 +11327,9 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11384,16 +11350,20 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>438</v>
+        <v>100</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>169</v>
+        <v>441</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11441,25 +11411,25 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>356</v>
+        <v>440</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>80</v>
@@ -11473,11 +11443,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11490,25 +11460,25 @@
         <v>80</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>180</v>
+        <v>449</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>181</v>
+        <v>450</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>80</v>
@@ -11533,13 +11503,13 @@
         <v>80</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>80</v>
@@ -11557,7 +11527,7 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11566,16 +11536,16 @@
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>129</v>
+        <v>341</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>80</v>
@@ -11589,15 +11559,15 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>86</v>
@@ -11615,16 +11585,16 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>80</v>
@@ -11673,10 +11643,10 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>86</v>
@@ -11691,7 +11661,7 @@
         <v>80</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
@@ -11703,9 +11673,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11719,7 +11689,7 @@
         <v>86</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -11728,20 +11698,18 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11789,7 +11757,7 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11807,7 +11775,7 @@
         <v>80</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>456</v>
+        <v>282</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>80</v>
@@ -11819,9 +11787,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11829,13 +11797,13 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>80</v>
@@ -11844,19 +11812,19 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>334</v>
+        <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>80</v>
@@ -11881,13 +11849,13 @@
         <v>80</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>338</v>
+        <v>230</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>339</v>
+        <v>467</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>340</v>
+        <v>468</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>80</v>
@@ -11905,16 +11873,16 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>98</v>
@@ -11923,7 +11891,7 @@
         <v>80</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>341</v>
+        <v>469</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>80</v>
@@ -11935,44 +11903,44 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H85" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H85" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>88</v>
+        <v>343</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>80</v>
@@ -12021,25 +11989,25 @@
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>98</v>
+        <v>475</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>80</v>
@@ -12051,9 +12019,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12067,7 +12035,7 @@
         <v>86</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12079,14 +12047,12 @@
         <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>470</v>
+        <v>351</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>80</v>
@@ -12135,7 +12101,7 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>469</v>
+        <v>353</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12147,13 +12113,13 @@
         <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>282</v>
+        <v>354</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>80</v>
@@ -12165,23 +12131,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -12190,20 +12156,18 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>474</v>
+        <v>381</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>475</v>
+        <v>382</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12227,13 +12191,13 @@
         <v>80</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>478</v>
+        <v>80</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>80</v>
@@ -12251,25 +12215,25 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>473</v>
+        <v>356</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>480</v>
+        <v>354</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>80</v>
@@ -12283,11 +12247,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12303,22 +12267,22 @@
         <v>87</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>343</v>
+        <v>131</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>482</v>
+        <v>431</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>483</v>
+        <v>432</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>484</v>
+        <v>180</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>485</v>
+        <v>181</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>80</v>
@@ -12367,7 +12331,7 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>481</v>
+        <v>433</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12379,13 +12343,13 @@
         <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>486</v>
+        <v>137</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>480</v>
+        <v>129</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>80</v>
@@ -12399,7 +12363,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12407,7 +12371,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>86</v>
@@ -12425,12 +12389,14 @@
         <v>88</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>351</v>
+        <v>480</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>80</v>
@@ -12479,10 +12445,10 @@
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>353</v>
+        <v>479</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>86</v>
@@ -12491,13 +12457,13 @@
         <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>354</v>
+        <v>469</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>80</v>
@@ -12511,18 +12477,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>80</v>
@@ -12534,17 +12500,15 @@
         <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>398</v>
+        <v>484</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>80</v>
@@ -12569,13 +12533,13 @@
         <v>80</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>80</v>
@@ -12593,25 +12557,25 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>356</v>
+        <v>483</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>354</v>
+        <v>469</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>80</v>
@@ -12625,43 +12589,39 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>131</v>
+        <v>489</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>80</v>
       </c>
@@ -12685,13 +12645,13 @@
         <v>80</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>80</v>
+        <v>492</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>80</v>
@@ -12709,25 +12669,25 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>80</v>
+        <v>494</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>129</v>
+        <v>469</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>80</v>
@@ -12741,7 +12701,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12749,7 +12709,7 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>86</v>
@@ -12764,16 +12724,16 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12799,13 +12759,13 @@
         <v>80</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>80</v>
+        <v>497</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>80</v>
+        <v>499</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>80</v>
@@ -12823,16 +12783,16 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>98</v>
@@ -12841,7 +12801,7 @@
         <v>80</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>80</v>
@@ -12853,9 +12813,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12863,13 +12823,13 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>80</v>
@@ -12878,20 +12838,24 @@
         <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="Q93" t="s" s="2">
         <v>80</v>
       </c>
@@ -12911,13 +12875,13 @@
         <v>80</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>497</v>
+        <v>80</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>498</v>
+        <v>80</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>80</v>
@@ -12935,16 +12899,16 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>80</v>
+        <v>506</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>98</v>
@@ -12953,7 +12917,7 @@
         <v>80</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>80</v>
@@ -12965,9 +12929,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12975,13 +12939,13 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>80</v>
@@ -12990,20 +12954,26 @@
         <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>500</v>
+        <v>237</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="Q94" t="s" s="2">
         <v>80</v>
       </c>
@@ -13023,13 +12993,13 @@
         <v>80</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>503</v>
+        <v>80</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>80</v>
@@ -13047,16 +13017,16 @@
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>98</v>
@@ -13065,7 +13035,7 @@
         <v>80</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>80</v>
@@ -13077,9 +13047,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13093,7 +13063,7 @@
         <v>86</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>80</v>
@@ -13102,18 +13072,20 @@
         <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>80</v>
       </c>
@@ -13137,13 +13109,13 @@
         <v>80</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>508</v>
+        <v>80</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>80</v>
@@ -13161,7 +13133,7 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13170,7 +13142,7 @@
         <v>86</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>98</v>
@@ -13179,7 +13151,7 @@
         <v>80</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>80</v>
@@ -13193,7 +13165,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13216,24 +13188,22 @@
         <v>80</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>237</v>
+        <v>520</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P96" t="s" s="2">
-        <v>516</v>
-      </c>
+      <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
         <v>80</v>
       </c>
@@ -13277,7 +13247,7 @@
         <v>80</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13286,7 +13256,7 @@
         <v>86</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>98</v>
@@ -13295,7 +13265,7 @@
         <v>80</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>80</v>
@@ -13304,12 +13274,12 @@
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13332,26 +13302,22 @@
         <v>80</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>237</v>
+        <v>526</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P97" t="s" s="2">
-        <v>523</v>
-      </c>
+      <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
         <v>80</v>
       </c>
@@ -13395,7 +13361,7 @@
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13404,7 +13370,7 @@
         <v>86</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>98</v>
@@ -13413,7 +13379,7 @@
         <v>80</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>80</v>
@@ -13427,7 +13393,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13438,7 +13404,7 @@
         <v>78</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>87</v>
@@ -13450,20 +13416,18 @@
         <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>80</v>
       </c>
@@ -13511,16 +13475,16 @@
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>98</v>
@@ -13529,7 +13493,7 @@
         <v>80</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>80</v>
@@ -13541,9 +13505,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13557,7 +13521,7 @@
         <v>86</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>80</v>
@@ -13566,17 +13530,15 @@
         <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>531</v>
+        <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>532</v>
+        <v>351</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>80</v>
@@ -13625,7 +13587,7 @@
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>530</v>
+        <v>353</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -13634,16 +13596,16 @@
         <v>86</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>535</v>
+        <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>480</v>
+        <v>354</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>80</v>
@@ -13652,26 +13614,26 @@
         <v>80</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
         <v>536</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>80</v>
@@ -13680,16 +13642,16 @@
         <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>537</v>
+        <v>131</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>538</v>
+        <v>381</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>539</v>
+        <v>382</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>540</v>
+        <v>180</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13739,25 +13701,25 @@
         <v>80</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>536</v>
+        <v>356</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>480</v>
+        <v>354</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>80</v>
@@ -13769,13 +13731,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13785,27 +13747,29 @@
         <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H101" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H101" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I101" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>343</v>
+        <v>131</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>543</v>
+        <v>431</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>544</v>
+        <v>432</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>80</v>
       </c>
@@ -13853,7 +13817,7 @@
         <v>80</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>542</v>
+        <v>433</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -13862,16 +13826,16 @@
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>480</v>
+        <v>129</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>80</v>
@@ -13885,7 +13849,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13893,7 +13857,7 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>86</v>
@@ -13908,15 +13872,17 @@
         <v>80</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>88</v>
+        <v>539</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>351</v>
+        <v>540</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M102" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>80</v>
@@ -13941,13 +13907,13 @@
         <v>80</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>80</v>
+        <v>492</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>80</v>
@@ -13965,10 +13931,10 @@
         <v>80</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>353</v>
+        <v>538</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>86</v>
@@ -13977,13 +13943,13 @@
         <v>80</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>354</v>
+        <v>469</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>80</v>
@@ -13997,18 +13963,18 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>80</v>
@@ -14020,22 +13986,24 @@
         <v>80</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>398</v>
+        <v>544</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>399</v>
+        <v>545</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>180</v>
+        <v>546</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="Q103" t="s" s="2">
         <v>80</v>
       </c>
@@ -14079,25 +14047,25 @@
         <v>80</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>356</v>
+        <v>543</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>354</v>
+        <v>469</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>80</v>
@@ -14109,13 +14077,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>548</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -14125,28 +14093,28 @@
         <v>79</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>131</v>
+        <v>343</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>442</v>
+        <v>549</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>443</v>
+        <v>550</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>180</v>
+        <v>551</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>181</v>
+        <v>552</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>80</v>
@@ -14195,7 +14163,7 @@
         <v>80</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>444</v>
+        <v>548</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14204,16 +14172,16 @@
         <v>79</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>80</v>
+        <v>553</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>129</v>
+        <v>469</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>80</v>
@@ -14227,7 +14195,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14235,7 +14203,7 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>86</v>
@@ -14250,17 +14218,15 @@
         <v>80</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>550</v>
+        <v>88</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>551</v>
+        <v>351</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>80</v>
@@ -14285,13 +14251,13 @@
         <v>80</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>503</v>
+        <v>80</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>80</v>
@@ -14309,10 +14275,10 @@
         <v>80</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>549</v>
+        <v>353</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>86</v>
@@ -14321,13 +14287,13 @@
         <v>80</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>480</v>
+        <v>354</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>80</v>
@@ -14341,18 +14307,18 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>80</v>
@@ -14364,24 +14330,22 @@
         <v>80</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>555</v>
+        <v>381</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>556</v>
+        <v>382</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>557</v>
+        <v>180</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P106" t="s" s="2">
-        <v>558</v>
-      </c>
+      <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
         <v>80</v>
       </c>
@@ -14425,25 +14389,25 @@
         <v>80</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>554</v>
+        <v>356</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>480</v>
+        <v>354</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>80</v>
@@ -14455,13 +14419,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -14471,28 +14435,28 @@
         <v>79</v>
       </c>
       <c r="G107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H107" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H107" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I107" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>343</v>
+        <v>131</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>560</v>
+        <v>431</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>561</v>
+        <v>432</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>562</v>
+        <v>180</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>563</v>
+        <v>181</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>80</v>
@@ -14541,7 +14505,7 @@
         <v>80</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>559</v>
+        <v>433</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14550,16 +14514,16 @@
         <v>79</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>564</v>
+        <v>80</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>480</v>
+        <v>129</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>80</v>
@@ -14571,9 +14535,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14581,13 +14545,13 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>80</v>
@@ -14596,15 +14560,17 @@
         <v>80</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>88</v>
+        <v>558</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>351</v>
+        <v>559</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M108" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>80</v>
@@ -14629,13 +14595,13 @@
         <v>80</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>80</v>
+        <v>492</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>80</v>
@@ -14653,10 +14619,10 @@
         <v>80</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>353</v>
+        <v>557</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>86</v>
@@ -14665,13 +14631,13 @@
         <v>80</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>354</v>
+        <v>469</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>80</v>
@@ -14683,13 +14649,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -14699,7 +14665,7 @@
         <v>79</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>80</v>
@@ -14708,18 +14674,20 @@
         <v>80</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>131</v>
+        <v>343</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>398</v>
+        <v>563</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>399</v>
+        <v>564</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>80</v>
       </c>
@@ -14767,7 +14735,7 @@
         <v>80</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>356</v>
+        <v>562</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -14776,16 +14744,16 @@
         <v>79</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>80</v>
+        <v>567</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>354</v>
+        <v>568</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>80</v>
@@ -14799,43 +14767,39 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>442</v>
+        <v>351</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>80</v>
       </c>
@@ -14883,25 +14847,25 @@
         <v>80</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>444</v>
+        <v>353</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>129</v>
+        <v>354</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>80</v>
@@ -14913,9 +14877,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14923,13 +14887,13 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>80</v>
@@ -14938,17 +14902,15 @@
         <v>80</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>569</v>
+        <v>131</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>570</v>
+        <v>132</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>80</v>
@@ -14973,49 +14935,47 @@
         <v>80</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>503</v>
+        <v>80</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB111" s="2"/>
       <c r="AC111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>568</v>
+        <v>356</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>80</v>
@@ -15027,11 +14987,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="B112" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="C112" t="s" s="2">
         <v>80</v>
       </c>
@@ -15040,10 +15002,10 @@
         <v>78</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>80</v>
@@ -15052,20 +15014,16 @@
         <v>80</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>574</v>
+        <v>169</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>577</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>80</v>
       </c>
@@ -15113,7 +15071,7 @@
         <v>80</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>573</v>
+        <v>356</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>78</v>
@@ -15122,16 +15080,16 @@
         <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>578</v>
+        <v>143</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>579</v>
+        <v>80</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>80</v>
@@ -15145,9 +15103,11 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B113" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>571</v>
+      </c>
       <c r="C113" t="s" s="2">
         <v>80</v>
       </c>
@@ -15168,13 +15128,13 @@
         <v>80</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>351</v>
+        <v>169</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>352</v>
+        <v>170</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15225,25 +15185,25 @@
         <v>80</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>80</v>
@@ -15257,9 +15217,11 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B114" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="C114" t="s" s="2">
         <v>80</v>
       </c>
@@ -15268,7 +15230,7 @@
         <v>78</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>80</v>
@@ -15280,15 +15242,17 @@
         <v>80</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>131</v>
+        <v>415</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>132</v>
+        <v>416</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>80</v>
@@ -15325,14 +15289,16 @@
         <v>80</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB114" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AE114" t="s" s="2">
         <v>356</v>
@@ -15344,7 +15310,7 @@
         <v>79</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>137</v>
@@ -15367,41 +15333,43 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>438</v>
+        <v>131</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>169</v>
+        <v>431</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O115" t="s" s="2">
         <v>80</v>
       </c>
@@ -15449,7 +15417,7 @@
         <v>80</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>356</v>
+        <v>433</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15458,7 +15426,7 @@
         <v>79</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>137</v>
@@ -15467,7 +15435,7 @@
         <v>80</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>80</v>
@@ -15481,17 +15449,15 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>582</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F116" t="s" s="2">
         <v>86</v>
@@ -15506,16 +15472,20 @@
         <v>80</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>80</v>
       </c>
@@ -15563,25 +15533,25 @@
         <v>80</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>356</v>
+        <v>434</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>80</v>
@@ -15595,11 +15565,9 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
         <v>80</v>
       </c>
@@ -15620,18 +15588,20 @@
         <v>80</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>432</v>
+        <v>100</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O117" t="s" s="2">
         <v>80</v>
       </c>
@@ -15679,25 +15649,25 @@
         <v>80</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>356</v>
+        <v>440</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>80</v>
@@ -15711,11 +15681,11 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15728,25 +15698,25 @@
         <v>80</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>180</v>
+        <v>449</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>181</v>
+        <v>450</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>80</v>
@@ -15771,13 +15741,13 @@
         <v>80</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>80</v>
@@ -15795,7 +15765,7 @@
         <v>80</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -15804,16 +15774,16 @@
         <v>79</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>129</v>
+        <v>341</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>80</v>
@@ -15827,15 +15797,15 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>86</v>
@@ -15853,16 +15823,16 @@
         <v>88</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>80</v>
@@ -15911,10 +15881,10 @@
         <v>80</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>86</v>
@@ -15929,7 +15899,7 @@
         <v>80</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>80</v>
@@ -15943,7 +15913,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15966,20 +15936,18 @@
         <v>80</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>80</v>
       </c>
@@ -16027,7 +15995,7 @@
         <v>80</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>78</v>
@@ -16045,7 +16013,7 @@
         <v>80</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>456</v>
+        <v>282</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>80</v>
@@ -16059,7 +16027,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16067,10 +16035,10 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>80</v>
@@ -16082,19 +16050,19 @@
         <v>80</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>334</v>
+        <v>106</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>80</v>
@@ -16119,13 +16087,13 @@
         <v>80</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>338</v>
+        <v>230</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>339</v>
+        <v>467</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>340</v>
+        <v>468</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>80</v>
@@ -16143,16 +16111,16 @@
         <v>80</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>98</v>
@@ -16161,7 +16129,7 @@
         <v>80</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>341</v>
+        <v>469</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>80</v>
@@ -16175,42 +16143,42 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>88</v>
+        <v>343</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>80</v>
@@ -16259,25 +16227,25 @@
         <v>80</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>98</v>
+        <v>475</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>80</v>
@@ -16291,7 +16259,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16317,14 +16285,12 @@
         <v>88</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>470</v>
+        <v>351</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>80</v>
@@ -16373,7 +16339,7 @@
         <v>80</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>469</v>
+        <v>353</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>78</v>
@@ -16385,13 +16351,13 @@
         <v>80</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>282</v>
+        <v>354</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>80</v>
@@ -16405,18 +16371,18 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>80</v>
@@ -16428,20 +16394,18 @@
         <v>80</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>474</v>
+        <v>381</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>475</v>
+        <v>382</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>80</v>
       </c>
@@ -16465,13 +16429,13 @@
         <v>80</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>478</v>
+        <v>80</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>80</v>
@@ -16489,25 +16453,25 @@
         <v>80</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>473</v>
+        <v>356</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>480</v>
+        <v>354</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>80</v>
@@ -16521,11 +16485,11 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16541,22 +16505,22 @@
         <v>87</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>343</v>
+        <v>131</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>482</v>
+        <v>431</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>483</v>
+        <v>432</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>484</v>
+        <v>180</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>485</v>
+        <v>181</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>80</v>
@@ -16605,7 +16569,7 @@
         <v>80</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>481</v>
+        <v>433</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -16617,13 +16581,13 @@
         <v>80</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>486</v>
+        <v>137</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>480</v>
+        <v>129</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>80</v>
@@ -16637,7 +16601,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16645,7 +16609,7 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F126" t="s" s="2">
         <v>86</v>
@@ -16663,12 +16627,14 @@
         <v>88</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>351</v>
+        <v>480</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M126" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>80</v>
@@ -16717,10 +16683,10 @@
         <v>80</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>353</v>
+        <v>479</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>86</v>
@@ -16729,13 +16695,13 @@
         <v>80</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>354</v>
+        <v>469</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>80</v>
@@ -16749,18 +16715,18 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>80</v>
@@ -16772,17 +16738,15 @@
         <v>80</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>398</v>
+        <v>484</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M127" s="2"/>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>80</v>
@@ -16807,13 +16771,13 @@
         <v>80</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>80</v>
@@ -16831,25 +16795,25 @@
         <v>80</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>356</v>
+        <v>483</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>354</v>
+        <v>469</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>80</v>
@@ -16863,43 +16827,39 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>131</v>
+        <v>489</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>80</v>
       </c>
@@ -16923,13 +16883,13 @@
         <v>80</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>80</v>
+        <v>492</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>80</v>
@@ -16947,25 +16907,25 @@
         <v>80</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>80</v>
+        <v>494</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>129</v>
+        <v>469</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>80</v>
@@ -16979,7 +16939,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16987,7 +16947,7 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F129" t="s" s="2">
         <v>86</v>
@@ -17002,16 +16962,16 @@
         <v>80</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -17037,13 +16997,13 @@
         <v>80</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>80</v>
+        <v>497</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>80</v>
+        <v>499</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>80</v>
@@ -17061,16 +17021,16 @@
         <v>80</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>98</v>
@@ -17079,7 +17039,7 @@
         <v>80</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>80</v>
@@ -17093,7 +17053,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17101,7 +17061,7 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F130" t="s" s="2">
         <v>86</v>
@@ -17116,20 +17076,24 @@
         <v>80</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M130" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P130" s="2"/>
+      <c r="P130" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="Q130" t="s" s="2">
         <v>80</v>
       </c>
@@ -17149,13 +17113,13 @@
         <v>80</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>497</v>
+        <v>80</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>498</v>
+        <v>80</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>80</v>
@@ -17173,16 +17137,16 @@
         <v>80</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>80</v>
+        <v>506</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>98</v>
@@ -17191,7 +17155,7 @@
         <v>80</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>80</v>
@@ -17205,7 +17169,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17213,7 +17177,7 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F131" t="s" s="2">
         <v>86</v>
@@ -17228,20 +17192,26 @@
         <v>80</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>500</v>
+        <v>237</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="O131" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P131" s="2"/>
+      <c r="P131" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="Q131" t="s" s="2">
         <v>80</v>
       </c>
@@ -17261,13 +17231,13 @@
         <v>80</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>503</v>
+        <v>80</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>80</v>
@@ -17285,16 +17255,16 @@
         <v>80</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>98</v>
@@ -17303,7 +17273,7 @@
         <v>80</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>80</v>
@@ -17317,7 +17287,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17340,18 +17310,20 @@
         <v>80</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N132" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>80</v>
       </c>
@@ -17375,13 +17347,13 @@
         <v>80</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>508</v>
+        <v>80</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>80</v>
@@ -17399,7 +17371,7 @@
         <v>80</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>78</v>
@@ -17408,7 +17380,7 @@
         <v>86</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>98</v>
@@ -17417,7 +17389,7 @@
         <v>80</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>80</v>
@@ -17431,7 +17403,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17454,24 +17426,22 @@
         <v>80</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>237</v>
+        <v>520</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P133" t="s" s="2">
-        <v>516</v>
-      </c>
+      <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
         <v>80</v>
       </c>
@@ -17515,7 +17485,7 @@
         <v>80</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>78</v>
@@ -17524,7 +17494,7 @@
         <v>86</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>98</v>
@@ -17533,7 +17503,7 @@
         <v>80</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>80</v>
@@ -17542,12 +17512,12 @@
         <v>80</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17570,26 +17540,22 @@
         <v>80</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>237</v>
+        <v>595</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>602</v>
+        <v>528</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P134" t="s" s="2">
-        <v>523</v>
-      </c>
+      <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
         <v>80</v>
       </c>
@@ -17633,7 +17599,7 @@
         <v>80</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>78</v>
@@ -17642,7 +17608,7 @@
         <v>86</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>98</v>
@@ -17651,7 +17617,7 @@
         <v>80</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>80</v>
@@ -17665,7 +17631,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17676,7 +17642,7 @@
         <v>78</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>80</v>
@@ -17688,20 +17654,18 @@
         <v>80</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>80</v>
       </c>
@@ -17749,16 +17713,16 @@
         <v>80</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>98</v>
@@ -17767,7 +17731,7 @@
         <v>80</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>80</v>
@@ -17781,7 +17745,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17804,17 +17768,15 @@
         <v>80</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>531</v>
+        <v>88</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>532</v>
+        <v>351</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M136" s="2"/>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>80</v>
@@ -17863,7 +17825,7 @@
         <v>80</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>530</v>
+        <v>353</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>78</v>
@@ -17872,16 +17834,16 @@
         <v>86</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>535</v>
+        <v>80</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>480</v>
+        <v>354</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>80</v>
@@ -17890,23 +17852,23 @@
         <v>80</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>80</v>
@@ -17918,16 +17880,16 @@
         <v>80</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>606</v>
+        <v>131</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>538</v>
+        <v>381</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>539</v>
+        <v>382</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>540</v>
+        <v>180</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -17977,25 +17939,25 @@
         <v>80</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>536</v>
+        <v>356</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>480</v>
+        <v>354</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>80</v>
@@ -18009,11 +17971,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18026,24 +17988,26 @@
         <v>80</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>343</v>
+        <v>131</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>543</v>
+        <v>431</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>544</v>
+        <v>432</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N138" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>80</v>
       </c>
@@ -18091,7 +18055,7 @@
         <v>80</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>542</v>
+        <v>433</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>78</v>
@@ -18100,16 +18064,16 @@
         <v>79</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>480</v>
+        <v>129</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>80</v>
@@ -18123,7 +18087,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18131,7 +18095,7 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F139" t="s" s="2">
         <v>86</v>
@@ -18146,15 +18110,17 @@
         <v>80</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>88</v>
+        <v>539</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>351</v>
+        <v>540</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M139" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>80</v>
@@ -18179,13 +18145,13 @@
         <v>80</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>80</v>
+        <v>492</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>80</v>
@@ -18203,10 +18169,10 @@
         <v>80</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>353</v>
+        <v>538</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>86</v>
@@ -18215,13 +18181,13 @@
         <v>80</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>354</v>
+        <v>469</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>80</v>
@@ -18235,18 +18201,18 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>80</v>
@@ -18258,22 +18224,24 @@
         <v>80</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>398</v>
+        <v>544</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>399</v>
+        <v>545</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>180</v>
+        <v>546</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P140" s="2"/>
+      <c r="P140" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="Q140" t="s" s="2">
         <v>80</v>
       </c>
@@ -18317,25 +18285,25 @@
         <v>80</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>356</v>
+        <v>543</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>354</v>
+        <v>469</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>80</v>
@@ -18349,11 +18317,11 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18366,25 +18334,25 @@
         <v>80</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>131</v>
+        <v>343</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>442</v>
+        <v>549</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>443</v>
+        <v>550</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>180</v>
+        <v>551</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>181</v>
+        <v>552</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>80</v>
@@ -18433,7 +18401,7 @@
         <v>80</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>444</v>
+        <v>548</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>78</v>
@@ -18442,16 +18410,16 @@
         <v>79</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>80</v>
+        <v>553</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>129</v>
+        <v>469</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>80</v>
@@ -18465,7 +18433,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18473,7 +18441,7 @@
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F142" t="s" s="2">
         <v>86</v>
@@ -18488,17 +18456,15 @@
         <v>80</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>550</v>
+        <v>88</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>551</v>
+        <v>351</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M142" s="2"/>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
         <v>80</v>
@@ -18523,13 +18489,13 @@
         <v>80</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>503</v>
+        <v>80</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>80</v>
@@ -18547,10 +18513,10 @@
         <v>80</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>549</v>
+        <v>353</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>86</v>
@@ -18559,13 +18525,13 @@
         <v>80</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>480</v>
+        <v>354</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>80</v>
@@ -18579,18 +18545,18 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>80</v>
@@ -18602,24 +18568,22 @@
         <v>80</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>555</v>
+        <v>381</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>556</v>
+        <v>382</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>557</v>
+        <v>180</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P143" t="s" s="2">
-        <v>558</v>
-      </c>
+      <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
         <v>80</v>
       </c>
@@ -18663,25 +18627,25 @@
         <v>80</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>554</v>
+        <v>356</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>480</v>
+        <v>354</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>80</v>
@@ -18695,11 +18659,11 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -18712,25 +18676,25 @@
         <v>80</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I144" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>343</v>
+        <v>131</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>560</v>
+        <v>431</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>561</v>
+        <v>432</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>562</v>
+        <v>180</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>563</v>
+        <v>181</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>80</v>
@@ -18779,7 +18743,7 @@
         <v>80</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>559</v>
+        <v>433</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>78</v>
@@ -18788,16 +18752,16 @@
         <v>79</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>564</v>
+        <v>80</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>480</v>
+        <v>129</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>80</v>
@@ -18811,7 +18775,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18819,7 +18783,7 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F145" t="s" s="2">
         <v>86</v>
@@ -18834,15 +18798,17 @@
         <v>80</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>88</v>
+        <v>558</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>351</v>
+        <v>559</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M145" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
         <v>80</v>
@@ -18867,13 +18833,13 @@
         <v>80</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>80</v>
+        <v>492</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>80</v>
@@ -18891,10 +18857,10 @@
         <v>80</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>353</v>
+        <v>557</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>86</v>
@@ -18903,13 +18869,13 @@
         <v>80</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>354</v>
+        <v>469</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>80</v>
@@ -18923,11 +18889,11 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -18946,18 +18912,20 @@
         <v>80</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>398</v>
+        <v>563</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>399</v>
+        <v>564</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N146" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="O146" t="s" s="2">
         <v>80</v>
       </c>
@@ -19005,7 +18973,7 @@
         <v>80</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>356</v>
+        <v>562</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>78</v>
@@ -19014,16 +18982,16 @@
         <v>79</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>80</v>
+        <v>567</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>354</v>
+        <v>568</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>80</v>
@@ -19032,357 +19000,11 @@
         <v>80</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="147" hidden="true">
-      <c r="A147" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="B147" s="2"/>
-      <c r="C147" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H147" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I147" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J147" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P147" s="2"/>
-      <c r="Q147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM147" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN147" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="148" hidden="true">
-      <c r="A148" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B148" s="2"/>
-      <c r="C148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F148" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N148" s="2"/>
-      <c r="O148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P148" s="2"/>
-      <c r="Q148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN148" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="149" hidden="true">
-      <c r="A149" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="B149" s="2"/>
-      <c r="C149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P149" s="2"/>
-      <c r="Q149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN149" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN149">
+  <autoFilter ref="A1:AN146">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -19392,7 +19014,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI148">
+  <conditionalFormatting sqref="A2:AI145">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T15:11:55+00:00</t>
+    <t>2022-01-25T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -495,20 +495,20 @@
     <t>Indicates the types of resources that can record answers to a Questionnaire. Open Issue: Should this extension be moved to core?</t>
   </si>
   <si>
-    <t>is-modular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-is-modular}
+    <t>assemble-expectation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-assemble-expectation}
 </t>
   </si>
   <si>
     <t>Questionnaire is modular</t>
   </si>
   <si>
-    <t>If present, indicates that this is a 'modular' questionnaire that requires some degree of assembly (e.g. using the [$assemble](http://hl7.org/fhir/uv/sdc/OperationDefinition/Questionnaire-assemble) operation) prior to being presented in a Form Filler.  This might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
-  </si>
-  <si>
-    <t>SDC-conformant Questionnaires **SHALL** declare this extension if they require an assembly process prior to use.</t>
+    <t>If present, indicates that this questionnaire has expectations with respect to assembly.  Specifically, indicates whether this form requires assembly (i.e. it can't be used directly without invoking the [$assemble](OperationDefinition-Questionnaire-assemble.html) operation operation on it) and/or whether it is intended for use only as a 'child' in an assembly process.  The assembly processs might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
+  </si>
+  <si>
+    <t>SDC-conformant Questionnaires **SHALL** declare this extension if they require an assembly process prior to use.  If not declared, then the Questionnaire is not necessarily safe for use as a child form and does not require assembly prior to use.</t>
   </si>
   <si>
     <t>library</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -505,7 +505,7 @@
     <t>Questionnaire is modular</t>
   </si>
   <si>
-    <t>If present, indicates that this questionnaire has expectations with respect to assembly.  Specifically, indicates whether this form requires assembly (i.e. it can't be used directly without invoking the [$assemble](OperationDefinition-Questionnaire-assemble.html) operation operation on it) and/or whether it is intended for use only as a 'child' in an assembly process.  The assembly processs might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
+    <t>If present, indicates that this questionnaire has expectations with respect to assembly.  Specifically, indicates whether this form requires assembly (i.e. it can't be used directly without invoking the [$assemble](https://build.fhir.org/ig/HL7/sdc/OperationDefinition-Questionnaire-assemble.html) operation operation on it) and/or whether it is intended for use only as a 'child' in an assembly process.  The assembly processs might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](https://build.fhir.org/ig/HL7/sdc/StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
   </si>
   <si>
     <t>SDC-conformant Questionnaires **SHALL** declare this extension if they require an assembly process prior to use.  If not declared, then the Questionnaire is not necessarily safe for use as a child form and does not require assembly prior to use.</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -505,7 +505,7 @@
     <t>Questionnaire is modular</t>
   </si>
   <si>
-    <t>If present, indicates that this questionnaire has expectations with respect to assembly.  Specifically, indicates whether this form requires assembly (i.e. it can't be used directly without invoking the [$assemble](https://build.fhir.org/ig/HL7/sdc/OperationDefinition-Questionnaire-assemble.html) operation operation on it) and/or whether it is intended for use only as a 'child' in an assembly process.  The assembly processs might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](https://build.fhir.org/ig/HL7/sdc/StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
+    <t>If present, indicates that this questionnaire has expectations with respect to assembly.  Specifically, indicates whether this form requires assembly (i.e. it can't be used directly without invoking the [$assemble](OperationDefinition-Questionnaire-assemble.html) operation operation on it) and/or whether it is intended for use only as a 'child' in an assembly process.  The assembly processs might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
   </si>
   <si>
     <t>SDC-conformant Questionnaires **SHALL** declare this extension if they require an assembly process prior to use.  If not declared, then the Questionnaire is not necessarily safe for use as a child form and does not require assembly prior to use.</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$146</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5182" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5474" uniqueCount="656">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1135,7 +1135,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}que-14:Can only have answerConstraint if answerOption, answerValueset, or answerExpression are present. {answerConstraint.exists() implies answerOption.exists() or answerValueset.exists() or extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').exists()}sdc-1:An item cannot have an answerExpression if answerOption or answerValueSet is already present. {extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not() implies (answerOption.empty() and answerValueSet.empty())}sdc-pop-1:An item cannot have both initial.value and initialExpression {initial.empty() or extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-initialExpression').empty()}</t>
+que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}sdc-1:An item cannot have an answerExpression if answerOption or answerValueSet is already present. {extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not() implies (answerOption.empty() and answerValueSet.empty())}sdc-pop-1:An item cannot have both initial.value and initialExpression {initial.empty() or extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-initialExpression').empty()}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=OBS, moodCode=DEF]</t>
@@ -1301,39 +1301,67 @@
     <t>Questionnaire.item.extension.extension.extension</t>
   </si>
   <si>
+    <t>Questionnaire.item.extension:contextExpression.extension:label.extension.id</t>
+  </si>
+  <si>
+    <t>Questionnaire.item.extension.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Questionnaire.item.extension:contextExpression.extension:label.extension.extension</t>
+  </si>
+  <si>
+    <t>Questionnaire.item.extension.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Questionnaire.item.extension:contextExpression.extension:label.extension.url</t>
+  </si>
+  <si>
+    <t>Questionnaire.item.extension.extension.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Questionnaire.item.extension:contextExpression.extension:label.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Questionnaire.item.extension.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t>Questionnaire.item.extension:contextExpression.extension:label.url</t>
   </si>
   <si>
     <t>Questionnaire.item.extension.extension.url</t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
     <t>Questionnaire.item.extension:contextExpression.extension:label.value[x]</t>
   </si>
   <si>
     <t>Questionnaire.item.extension.extension.value[x]</t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
     <t>Questionnaire.item.extension:contextExpression.extension:expression</t>
   </si>
   <si>
@@ -1350,6 +1378,18 @@
   </si>
   <si>
     <t>Questionnaire.item.extension:contextExpression.extension:expression.extension</t>
+  </si>
+  <si>
+    <t>Questionnaire.item.extension:contextExpression.extension:expression.extension.id</t>
+  </si>
+  <si>
+    <t>Questionnaire.item.extension:contextExpression.extension:expression.extension.extension</t>
+  </si>
+  <si>
+    <t>Questionnaire.item.extension:contextExpression.extension:expression.extension.url</t>
+  </si>
+  <si>
+    <t>Questionnaire.item.extension:contextExpression.extension:expression.extension.value[x]</t>
   </si>
   <si>
     <t>Questionnaire.item.extension:contextExpression.extension:expression.url</t>
@@ -1391,10 +1431,6 @@
   </si>
   <si>
     <t>Questionnaire.item.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>Questionnaire.item.extension:itemHidden</t>
@@ -2347,7 +2383,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO138"/>
+  <dimension ref="A1:AO146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2356,8 +2392,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="75.43359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="53.89453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="84.98828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="56.85546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.09765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -8878,7 +8914,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>87</v>
@@ -8893,24 +8929,22 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>405</v>
+        <v>81</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>81</v>
@@ -8952,10 +8986,10 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>87</v>
@@ -8970,7 +9004,7 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>130</v>
+        <v>364</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
@@ -8984,21 +9018,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -9010,15 +9044,17 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -9055,37 +9091,37 @@
         <v>81</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>422</v>
+        <v>366</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>130</v>
+        <v>364</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
@@ -9099,14 +9135,12 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>81</v>
       </c>
@@ -9127,15 +9161,17 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -9184,25 +9220,25 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>366</v>
+        <v>421</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -9216,10 +9252,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9242,13 +9278,13 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>210</v>
+        <v>424</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>361</v>
+        <v>425</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>362</v>
+        <v>426</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9299,7 +9335,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9311,13 +9347,13 @@
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>364</v>
+        <v>130</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
@@ -9334,18 +9370,18 @@
         <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
@@ -9357,16 +9393,16 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>189</v>
+        <v>420</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9374,7 +9410,7 @@
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>81</v>
+        <v>405</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>81</v>
@@ -9404,37 +9440,37 @@
         <v>81</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>403</v>
+        <v>81</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>366</v>
+        <v>421</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>364</v>
+        <v>130</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
@@ -9448,10 +9484,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9474,24 +9510,22 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>81</v>
@@ -9533,10 +9567,10 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>87</v>
@@ -9545,7 +9579,7 @@
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
@@ -9565,12 +9599,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9591,13 +9627,13 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>431</v>
+        <v>132</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9648,25 +9684,25 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>422</v>
+        <v>366</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
@@ -9680,14 +9716,12 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9696,7 +9730,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9708,17 +9742,15 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>433</v>
+        <v>210</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>434</v>
+        <v>361</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9767,25 +9799,25 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
@@ -9802,18 +9834,18 @@
         <v>437</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -9825,16 +9857,16 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>416</v>
+        <v>189</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9842,7 +9874,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>439</v>
+        <v>81</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>81</v>
@@ -9872,37 +9904,37 @@
         <v>81</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>130</v>
+        <v>364</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9916,10 +9948,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9930,7 +9962,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
@@ -9942,13 +9974,13 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>442</v>
+        <v>210</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>420</v>
+        <v>361</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>421</v>
+        <v>362</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9999,7 +10031,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>422</v>
+        <v>363</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -10011,13 +10043,13 @@
         <v>81</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>130</v>
+        <v>364</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
@@ -10031,23 +10063,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
@@ -10059,16 +10089,16 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>445</v>
+        <v>132</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>448</v>
+        <v>189</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10106,16 +10136,16 @@
         <v>81</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>366</v>
@@ -10136,7 +10166,7 @@
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
@@ -10150,23 +10180,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>81</v>
@@ -10178,16 +10206,16 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>433</v>
+        <v>101</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10237,25 +10265,25 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>366</v>
+        <v>421</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -10269,14 +10297,12 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>81</v>
       </c>
@@ -10297,20 +10323,16 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
       </c>
@@ -10358,25 +10380,25 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>366</v>
+        <v>427</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
@@ -10390,20 +10412,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>87</v>
@@ -10418,22 +10438,24 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>460</v>
+        <v>101</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>177</v>
+        <v>418</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>81</v>
@@ -10475,25 +10497,25 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>366</v>
+        <v>421</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -10507,46 +10529,42 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>463</v>
+        <v>81</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>132</v>
+        <v>444</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10594,19 +10612,19 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>81</v>
@@ -10626,24 +10644,26 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>81</v>
@@ -10652,20 +10672,18 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>210</v>
+        <v>446</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10713,25 +10731,25 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>467</v>
+        <v>366</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -10745,10 +10763,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10756,7 +10774,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>87</v>
@@ -10774,23 +10792,21 @@
         <v>101</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>474</v>
+        <v>418</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>81</v>
+        <v>452</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>81</v>
@@ -10832,10 +10848,10 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>473</v>
+        <v>421</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>87</v>
@@ -10844,13 +10860,13 @@
         <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>478</v>
+        <v>130</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
@@ -10864,10 +10880,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10878,7 +10894,7 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
@@ -10890,20 +10906,16 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>81</v>
       </c>
@@ -10927,13 +10939,13 @@
         <v>81</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>81</v>
@@ -10951,16 +10963,16 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>479</v>
+        <v>427</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>99</v>
@@ -10969,7 +10981,7 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>351</v>
+        <v>130</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10983,14 +10995,16 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="D74" t="s" s="2">
-        <v>485</v>
+        <v>81</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11000,7 +11014,7 @@
         <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>81</v>
@@ -11009,20 +11023,18 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>210</v>
+        <v>457</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>81</v>
       </c>
@@ -11070,25 +11082,25 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>484</v>
+        <v>366</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>490</v>
+        <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
@@ -11102,12 +11114,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>81</v>
       </c>
@@ -11116,10 +11130,10 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>81</v>
@@ -11128,16 +11142,16 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>210</v>
+        <v>446</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11187,25 +11201,25 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>491</v>
+        <v>366</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
@@ -11219,24 +11233,26 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>81</v>
@@ -11245,19 +11261,19 @@
         <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>107</v>
+        <v>465</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
@@ -11282,13 +11298,13 @@
         <v>81</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>81</v>
@@ -11306,25 +11322,25 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>495</v>
+        <v>366</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>502</v>
+        <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>81</v>
@@ -11338,12 +11354,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11352,32 +11370,28 @@
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>353</v>
+        <v>472</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>504</v>
+        <v>177</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11425,7 +11439,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>503</v>
+        <v>366</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11437,13 +11451,13 @@
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>508</v>
+        <v>138</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>502</v>
+        <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
@@ -11457,42 +11471,46 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>361</v>
+        <v>476</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>81</v>
       </c>
@@ -11540,25 +11558,25 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>363</v>
+        <v>478</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>364</v>
+        <v>130</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>81</v>
@@ -11572,24 +11590,24 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>81</v>
@@ -11598,18 +11616,20 @@
         <v>81</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>401</v>
+        <v>480</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>402</v>
+        <v>481</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11657,25 +11677,25 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>366</v>
+        <v>479</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>364</v>
+        <v>484</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>81</v>
@@ -11689,45 +11709,45 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>463</v>
+        <v>81</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>189</v>
+        <v>488</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>190</v>
+        <v>489</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>81</v>
@@ -11776,25 +11796,25 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>130</v>
+        <v>490</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>81</v>
@@ -11808,10 +11828,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11819,10 +11839,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>81</v>
@@ -11834,18 +11854,20 @@
         <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>210</v>
+        <v>344</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>81</v>
       </c>
@@ -11869,13 +11891,13 @@
         <v>81</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>81</v>
@@ -11893,16 +11915,16 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>81</v>
+        <v>357</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>99</v>
@@ -11911,7 +11933,7 @@
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>502</v>
+        <v>351</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>81</v>
@@ -11925,24 +11947,24 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>81</v>
+        <v>497</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>81</v>
@@ -11951,16 +11973,20 @@
         <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>81</v>
       </c>
@@ -11984,13 +12010,13 @@
         <v>81</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>519</v>
+        <v>81</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>81</v>
@@ -12008,10 +12034,10 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>87</v>
@@ -12040,10 +12066,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12051,13 +12077,13 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>81</v>
@@ -12066,15 +12092,17 @@
         <v>81</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>522</v>
+        <v>210</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>81</v>
@@ -12099,13 +12127,13 @@
         <v>81</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>525</v>
+        <v>81</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>526</v>
+        <v>81</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>81</v>
@@ -12123,16 +12151,16 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>99</v>
@@ -12141,7 +12169,7 @@
         <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>502</v>
+        <v>292</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>81</v>
@@ -12155,10 +12183,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12166,13 +12194,13 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>81</v>
@@ -12184,15 +12212,17 @@
         <v>107</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>81</v>
       </c>
@@ -12219,10 +12249,10 @@
         <v>240</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>81</v>
@@ -12240,16 +12270,16 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>533</v>
+        <v>81</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>99</v>
@@ -12258,7 +12288,7 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>81</v>
@@ -12272,10 +12302,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12286,36 +12316,36 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I85" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I85" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>247</v>
+        <v>353</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q85" t="s" s="2">
-        <v>538</v>
-      </c>
+      <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
         <v>81</v>
       </c>
@@ -12359,25 +12389,25 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>539</v>
+        <v>81</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>99</v>
+        <v>520</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>81</v>
@@ -12391,10 +12421,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12408,7 +12438,7 @@
         <v>87</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>81</v>
@@ -12417,26 +12447,20 @@
         <v>81</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>541</v>
+        <v>361</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q86" t="s" s="2">
-        <v>545</v>
-      </c>
+      <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
         <v>81</v>
       </c>
@@ -12480,7 +12504,7 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>540</v>
+        <v>363</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12489,16 +12513,16 @@
         <v>87</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>539</v>
+        <v>81</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>502</v>
+        <v>364</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>81</v>
@@ -12512,24 +12536,24 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>81</v>
@@ -12538,20 +12562,18 @@
         <v>81</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>547</v>
+        <v>401</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>548</v>
+        <v>402</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>81</v>
       </c>
@@ -12599,25 +12621,25 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>546</v>
+        <v>366</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>551</v>
+        <v>81</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>502</v>
+        <v>364</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>81</v>
@@ -12631,44 +12653,46 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I88" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J88" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>553</v>
+        <v>132</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>554</v>
+        <v>476</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>555</v>
+        <v>477</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>81</v>
       </c>
@@ -12716,25 +12740,25 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>552</v>
+        <v>478</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>557</v>
+        <v>81</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>502</v>
+        <v>130</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>81</v>
@@ -12743,15 +12767,15 @@
         <v>81</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12759,13 +12783,13 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>81</v>
@@ -12774,16 +12798,16 @@
         <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>559</v>
+        <v>210</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12833,16 +12857,16 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>563</v>
+        <v>81</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>99</v>
@@ -12851,7 +12875,7 @@
         <v>81</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>81</v>
@@ -12865,10 +12889,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12876,13 +12900,13 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>81</v>
@@ -12891,17 +12915,15 @@
         <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>353</v>
+        <v>107</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>81</v>
@@ -12926,13 +12948,13 @@
         <v>81</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>81</v>
@@ -12950,16 +12972,16 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>563</v>
+        <v>81</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>99</v>
@@ -12968,7 +12990,7 @@
         <v>81</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>81</v>
@@ -12982,10 +13004,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12993,7 +13015,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>87</v>
@@ -13008,13 +13030,13 @@
         <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>210</v>
+        <v>534</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>361</v>
+        <v>535</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>362</v>
+        <v>536</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13041,13 +13063,13 @@
         <v>81</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>81</v>
+        <v>537</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>81</v>
+        <v>538</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>81</v>
@@ -13065,25 +13087,25 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>363</v>
+        <v>533</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>81</v>
+        <v>539</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>81</v>
@@ -13097,21 +13119,21 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>569</v>
+        <v>540</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>569</v>
+        <v>540</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>81</v>
@@ -13123,16 +13145,16 @@
         <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>401</v>
+        <v>541</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>402</v>
+        <v>542</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>189</v>
+        <v>543</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13158,13 +13180,13 @@
         <v>81</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>81</v>
+        <v>542</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>81</v>
+        <v>544</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>81</v>
@@ -13182,25 +13204,25 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>366</v>
+        <v>540</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>81</v>
+        <v>545</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>81</v>
@@ -13214,50 +13236,50 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>463</v>
+        <v>81</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>464</v>
+        <v>547</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>465</v>
+        <v>548</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="R93" t="s" s="2">
         <v>81</v>
       </c>
@@ -13301,25 +13323,25 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>466</v>
+        <v>546</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>81</v>
+        <v>551</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>130</v>
+        <v>514</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>81</v>
@@ -13333,10 +13355,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13344,13 +13366,13 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>81</v>
@@ -13359,22 +13381,26 @@
         <v>81</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>572</v>
+        <v>247</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="R94" t="s" s="2">
         <v>81</v>
       </c>
@@ -13394,13 +13420,13 @@
         <v>81</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>525</v>
+        <v>81</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>526</v>
+        <v>81</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>81</v>
@@ -13418,16 +13444,16 @@
         <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>81</v>
+        <v>551</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>99</v>
@@ -13436,7 +13462,7 @@
         <v>81</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>81</v>
@@ -13450,10 +13476,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13467,7 +13493,7 @@
         <v>87</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>81</v>
@@ -13479,21 +13505,21 @@
         <v>247</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q95" t="s" s="2">
-        <v>580</v>
-      </c>
+      <c r="Q95" s="2"/>
       <c r="R95" t="s" s="2">
         <v>81</v>
       </c>
@@ -13537,7 +13563,7 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13546,7 +13572,7 @@
         <v>87</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>81</v>
+        <v>563</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>99</v>
@@ -13555,7 +13581,7 @@
         <v>81</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>81</v>
@@ -13569,10 +13595,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13583,7 +13609,7 @@
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>88</v>
@@ -13595,20 +13621,18 @@
         <v>81</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>353</v>
+        <v>565</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>81</v>
       </c>
@@ -13656,16 +13680,16 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>99</v>
@@ -13674,7 +13698,7 @@
         <v>81</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>81</v>
@@ -13683,15 +13707,15 @@
         <v>81</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>81</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13705,7 +13729,7 @@
         <v>87</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>81</v>
@@ -13714,15 +13738,17 @@
         <v>81</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>210</v>
+        <v>571</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>361</v>
+        <v>572</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>81</v>
@@ -13771,7 +13797,7 @@
         <v>81</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>363</v>
+        <v>570</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13780,16 +13806,16 @@
         <v>87</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>81</v>
+        <v>575</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>81</v>
@@ -13803,14 +13829,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13820,7 +13846,7 @@
         <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>81</v>
@@ -13829,16 +13855,16 @@
         <v>81</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>132</v>
+        <v>353</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>401</v>
+        <v>577</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>402</v>
+        <v>578</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>189</v>
+        <v>579</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13888,7 +13914,7 @@
         <v>81</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>366</v>
+        <v>576</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13897,16 +13923,16 @@
         <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>81</v>
+        <v>575</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>81</v>
@@ -13920,46 +13946,42 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>463</v>
+        <v>81</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>464</v>
+        <v>361</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>81</v>
       </c>
@@ -14007,25 +14029,25 @@
         <v>81</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>466</v>
+        <v>363</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>130</v>
+        <v>364</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>81</v>
@@ -14039,24 +14061,24 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>81</v>
@@ -14065,16 +14087,16 @@
         <v>81</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>591</v>
+        <v>132</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>592</v>
+        <v>401</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>593</v>
+        <v>402</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>594</v>
+        <v>189</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14100,13 +14122,13 @@
         <v>81</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>525</v>
+        <v>81</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>526</v>
+        <v>81</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>81</v>
@@ -14124,25 +14146,25 @@
         <v>81</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>590</v>
+        <v>366</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>502</v>
+        <v>364</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>81</v>
@@ -14156,14 +14178,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14173,28 +14195,28 @@
         <v>80</v>
       </c>
       <c r="H101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I101" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I101" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J101" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>353</v>
+        <v>132</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>596</v>
+        <v>476</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>597</v>
+        <v>477</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>598</v>
+        <v>189</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>599</v>
+        <v>190</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>81</v>
@@ -14243,7 +14265,7 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>595</v>
+        <v>478</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -14252,16 +14274,16 @@
         <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>600</v>
+        <v>81</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>601</v>
+        <v>130</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>81</v>
@@ -14275,10 +14297,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14286,7 +14308,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>87</v>
@@ -14301,15 +14323,17 @@
         <v>81</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>210</v>
+        <v>584</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>361</v>
+        <v>585</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>587</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>81</v>
@@ -14334,13 +14358,13 @@
         <v>81</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>81</v>
+        <v>537</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>81</v>
+        <v>538</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>81</v>
@@ -14358,10 +14382,10 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>363</v>
+        <v>583</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>87</v>
@@ -14370,13 +14394,13 @@
         <v>81</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>81</v>
@@ -14390,10 +14414,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14404,7 +14428,7 @@
         <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>81</v>
@@ -14416,20 +14440,24 @@
         <v>81</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>133</v>
+        <v>589</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="R103" t="s" s="2">
         <v>81</v>
       </c>
@@ -14461,35 +14489,37 @@
         <v>81</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC103" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>366</v>
+        <v>588</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>81</v>
+        <v>514</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>81</v>
@@ -14503,14 +14533,12 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
         <v>81</v>
       </c>
@@ -14519,10 +14547,10 @@
         <v>79</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>81</v>
@@ -14531,16 +14559,20 @@
         <v>81</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>460</v>
+        <v>353</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>177</v>
+        <v>594</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>81</v>
       </c>
@@ -14588,7 +14620,7 @@
         <v>81</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>366</v>
+        <v>593</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -14597,16 +14629,16 @@
         <v>80</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>145</v>
+        <v>598</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>81</v>
+        <v>514</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>81</v>
@@ -14620,14 +14652,12 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
         <v>81</v>
       </c>
@@ -14648,13 +14678,13 @@
         <v>81</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>177</v>
+        <v>361</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>178</v>
+        <v>362</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14705,25 +14735,25 @@
         <v>81</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>81</v>
@@ -14737,23 +14767,21 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>81</v>
@@ -14765,16 +14793,16 @@
         <v>81</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>445</v>
+        <v>132</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>448</v>
+        <v>189</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14833,7 +14861,7 @@
         <v>80</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>138</v>
@@ -14842,7 +14870,7 @@
         <v>81</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>81</v>
@@ -14856,14 +14884,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14885,10 +14913,10 @@
         <v>132</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>189</v>
@@ -14943,7 +14971,7 @@
         <v>81</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -14975,10 +15003,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14992,7 +15020,7 @@
         <v>87</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>81</v>
@@ -15001,20 +15029,18 @@
         <v>81</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>210</v>
+        <v>603</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>468</v>
+        <v>604</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>469</v>
+        <v>605</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>81</v>
       </c>
@@ -15038,13 +15064,13 @@
         <v>81</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>81</v>
+        <v>537</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>81</v>
+        <v>538</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>81</v>
@@ -15062,7 +15088,7 @@
         <v>81</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>467</v>
+        <v>602</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>87</v>
@@ -15080,7 +15106,7 @@
         <v>81</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>472</v>
+        <v>514</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>81</v>
@@ -15094,10 +15120,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15108,10 +15134,10 @@
         <v>79</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>81</v>
@@ -15120,19 +15146,19 @@
         <v>81</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>101</v>
+        <v>353</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>474</v>
+        <v>608</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>475</v>
+        <v>609</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>476</v>
+        <v>610</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>477</v>
+        <v>611</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>81</v>
@@ -15181,16 +15207,16 @@
         <v>81</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>473</v>
+        <v>607</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>81</v>
+        <v>612</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>99</v>
@@ -15199,7 +15225,7 @@
         <v>81</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>478</v>
+        <v>613</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>81</v>
@@ -15213,10 +15239,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15227,7 +15253,7 @@
         <v>79</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>81</v>
@@ -15239,20 +15265,16 @@
         <v>81</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>344</v>
+        <v>210</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>480</v>
+        <v>361</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>81</v>
       </c>
@@ -15276,13 +15298,13 @@
         <v>81</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>81</v>
@@ -15300,25 +15322,25 @@
         <v>81</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>479</v>
+        <v>363</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>81</v>
@@ -15332,21 +15354,21 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>485</v>
+        <v>81</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>81</v>
@@ -15358,20 +15380,16 @@
         <v>81</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>486</v>
+        <v>133</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>81</v>
       </c>
@@ -15407,37 +15425,35 @@
         <v>81</v>
       </c>
       <c r="AB111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC111" s="2"/>
       <c r="AD111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>484</v>
+        <v>366</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>490</v>
+        <v>81</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>81</v>
@@ -15451,12 +15467,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="C112" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="D112" t="s" s="2">
         <v>81</v>
       </c>
@@ -15477,17 +15495,15 @@
         <v>81</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>210</v>
+        <v>472</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>492</v>
+        <v>177</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>81</v>
@@ -15536,25 +15552,25 @@
         <v>81</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>491</v>
+        <v>366</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>81</v>
@@ -15568,18 +15584,20 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="C113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>618</v>
+      </c>
       <c r="D113" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>87</v>
@@ -15594,20 +15612,16 @@
         <v>81</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>496</v>
+        <v>177</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>81</v>
       </c>
@@ -15631,13 +15645,13 @@
         <v>81</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>81</v>
@@ -15655,25 +15669,25 @@
         <v>81</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>495</v>
+        <v>366</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>502</v>
+        <v>81</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>81</v>
@@ -15687,12 +15701,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C114" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>620</v>
+      </c>
       <c r="D114" t="s" s="2">
         <v>81</v>
       </c>
@@ -15701,32 +15717,30 @@
         <v>79</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J114" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>353</v>
+        <v>457</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>504</v>
+        <v>458</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>505</v>
+        <v>459</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>81</v>
       </c>
@@ -15774,7 +15788,7 @@
         <v>81</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>503</v>
+        <v>366</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15783,16 +15797,16 @@
         <v>80</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>508</v>
+        <v>138</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>502</v>
+        <v>81</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>81</v>
@@ -15806,42 +15820,46 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>361</v>
+        <v>476</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>81</v>
       </c>
@@ -15889,25 +15907,25 @@
         <v>81</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>363</v>
+        <v>478</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>364</v>
+        <v>130</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>81</v>
@@ -15921,21 +15939,21 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>81</v>
@@ -15947,18 +15965,20 @@
         <v>81</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>401</v>
+        <v>480</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>402</v>
+        <v>481</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O116" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="P116" t="s" s="2">
         <v>81</v>
       </c>
@@ -16006,25 +16026,25 @@
         <v>81</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>366</v>
+        <v>479</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>364</v>
+        <v>484</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>81</v>
@@ -16038,45 +16058,45 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>463</v>
+        <v>81</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>189</v>
+        <v>488</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>190</v>
+        <v>489</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>81</v>
@@ -16125,25 +16145,25 @@
         <v>81</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>130</v>
+        <v>490</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>81</v>
@@ -16157,10 +16177,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16168,10 +16188,10 @@
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>81</v>
@@ -16183,18 +16203,20 @@
         <v>81</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>210</v>
+        <v>344</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O118" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P118" t="s" s="2">
         <v>81</v>
       </c>
@@ -16218,13 +16240,13 @@
         <v>81</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>81</v>
@@ -16242,16 +16264,16 @@
         <v>81</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>81</v>
+        <v>357</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>99</v>
@@ -16260,7 +16282,7 @@
         <v>81</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>502</v>
+        <v>351</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>81</v>
@@ -16274,18 +16296,18 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>81</v>
+        <v>497</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>87</v>
@@ -16300,16 +16322,20 @@
         <v>81</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>81</v>
       </c>
@@ -16333,13 +16359,13 @@
         <v>81</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>519</v>
+        <v>81</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>81</v>
@@ -16357,10 +16383,10 @@
         <v>81</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>87</v>
@@ -16389,10 +16415,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16400,7 +16426,7 @@
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>87</v>
@@ -16415,15 +16441,17 @@
         <v>81</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>522</v>
+        <v>210</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N120" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>81</v>
@@ -16448,13 +16476,13 @@
         <v>81</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>525</v>
+        <v>81</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>526</v>
+        <v>81</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>81</v>
@@ -16472,16 +16500,16 @@
         <v>81</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>99</v>
@@ -16490,7 +16518,7 @@
         <v>81</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>502</v>
+        <v>292</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>81</v>
@@ -16504,10 +16532,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16515,7 +16543,7 @@
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>87</v>
@@ -16533,15 +16561,17 @@
         <v>107</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O121" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>81</v>
       </c>
@@ -16568,10 +16598,10 @@
         <v>240</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>81</v>
@@ -16589,16 +16619,16 @@
         <v>81</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>533</v>
+        <v>81</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>99</v>
@@ -16607,7 +16637,7 @@
         <v>81</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>81</v>
@@ -16621,10 +16651,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16635,36 +16665,36 @@
         <v>79</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J122" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>247</v>
+        <v>353</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O122" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="P122" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q122" t="s" s="2">
-        <v>538</v>
-      </c>
+      <c r="Q122" s="2"/>
       <c r="R122" t="s" s="2">
         <v>81</v>
       </c>
@@ -16708,25 +16738,25 @@
         <v>81</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>539</v>
+        <v>81</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>99</v>
+        <v>520</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>81</v>
@@ -16740,10 +16770,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16766,26 +16796,20 @@
         <v>81</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>541</v>
+        <v>361</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q123" t="s" s="2">
-        <v>545</v>
-      </c>
+      <c r="Q123" s="2"/>
       <c r="R123" t="s" s="2">
         <v>81</v>
       </c>
@@ -16829,7 +16853,7 @@
         <v>81</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>540</v>
+        <v>363</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16838,16 +16862,16 @@
         <v>87</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>539</v>
+        <v>81</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>502</v>
+        <v>364</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>81</v>
@@ -16861,21 +16885,21 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>81</v>
@@ -16887,20 +16911,18 @@
         <v>81</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>547</v>
+        <v>401</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>548</v>
+        <v>402</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>81</v>
       </c>
@@ -16948,25 +16970,25 @@
         <v>81</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>546</v>
+        <v>366</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>551</v>
+        <v>81</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>502</v>
+        <v>364</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>81</v>
@@ -16980,44 +17002,46 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>553</v>
+        <v>132</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>554</v>
+        <v>476</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>555</v>
+        <v>477</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O125" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P125" t="s" s="2">
         <v>81</v>
       </c>
@@ -17065,25 +17089,25 @@
         <v>81</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>552</v>
+        <v>478</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>557</v>
+        <v>81</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>502</v>
+        <v>130</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>81</v>
@@ -17092,15 +17116,15 @@
         <v>81</v>
       </c>
       <c r="AO125" t="s" s="2">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17108,7 +17132,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>87</v>
@@ -17123,16 +17147,16 @@
         <v>81</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>631</v>
+        <v>210</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -17182,16 +17206,16 @@
         <v>81</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>563</v>
+        <v>81</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>99</v>
@@ -17200,7 +17224,7 @@
         <v>81</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>81</v>
@@ -17214,10 +17238,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17225,10 +17249,10 @@
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>81</v>
@@ -17240,17 +17264,15 @@
         <v>81</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>353</v>
+        <v>107</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>81</v>
@@ -17275,13 +17297,13 @@
         <v>81</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>81</v>
@@ -17299,16 +17321,16 @@
         <v>81</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>563</v>
+        <v>81</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>99</v>
@@ -17317,7 +17339,7 @@
         <v>81</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>81</v>
@@ -17331,10 +17353,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17342,7 +17364,7 @@
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>87</v>
@@ -17357,13 +17379,13 @@
         <v>81</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>210</v>
+        <v>534</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>361</v>
+        <v>535</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>362</v>
+        <v>536</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -17390,13 +17412,13 @@
         <v>81</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>81</v>
+        <v>537</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>81</v>
+        <v>538</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>81</v>
@@ -17414,25 +17436,25 @@
         <v>81</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>363</v>
+        <v>533</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>81</v>
+        <v>539</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>81</v>
@@ -17446,21 +17468,21 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>81</v>
@@ -17472,16 +17494,16 @@
         <v>81</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>401</v>
+        <v>541</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>402</v>
+        <v>542</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>189</v>
+        <v>543</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
@@ -17507,13 +17529,13 @@
         <v>81</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>81</v>
+        <v>542</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>81</v>
+        <v>544</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>81</v>
@@ -17531,25 +17553,25 @@
         <v>81</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>366</v>
+        <v>540</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>81</v>
+        <v>545</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>81</v>
@@ -17563,50 +17585,50 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>463</v>
+        <v>81</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>464</v>
+        <v>547</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>465</v>
+        <v>548</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="R130" t="s" s="2">
         <v>81</v>
       </c>
@@ -17650,25 +17672,25 @@
         <v>81</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>466</v>
+        <v>546</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>81</v>
+        <v>551</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>130</v>
+        <v>514</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>81</v>
@@ -17682,10 +17704,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17693,7 +17715,7 @@
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>87</v>
@@ -17708,22 +17730,26 @@
         <v>81</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>572</v>
+        <v>247</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>574</v>
+        <v>639</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="O131" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="P131" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q131" s="2"/>
+      <c r="Q131" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="R131" t="s" s="2">
         <v>81</v>
       </c>
@@ -17743,13 +17769,13 @@
         <v>81</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>525</v>
+        <v>81</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>526</v>
+        <v>81</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>81</v>
@@ -17767,16 +17793,16 @@
         <v>81</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>81</v>
+        <v>551</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>99</v>
@@ -17785,7 +17811,7 @@
         <v>81</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>81</v>
@@ -17799,10 +17825,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17828,21 +17854,21 @@
         <v>247</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O132" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="P132" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q132" t="s" s="2">
-        <v>580</v>
-      </c>
+      <c r="Q132" s="2"/>
       <c r="R132" t="s" s="2">
         <v>81</v>
       </c>
@@ -17886,7 +17912,7 @@
         <v>81</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -17895,7 +17921,7 @@
         <v>87</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>81</v>
+        <v>563</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>99</v>
@@ -17904,7 +17930,7 @@
         <v>81</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>81</v>
@@ -17918,10 +17944,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17932,7 +17958,7 @@
         <v>79</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>81</v>
@@ -17944,20 +17970,18 @@
         <v>81</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>353</v>
+        <v>565</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
         <v>81</v>
       </c>
@@ -18005,16 +18029,16 @@
         <v>81</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>99</v>
@@ -18023,7 +18047,7 @@
         <v>81</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>81</v>
@@ -18032,15 +18056,15 @@
         <v>81</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>81</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18063,15 +18087,17 @@
         <v>81</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>210</v>
+        <v>643</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>361</v>
+        <v>572</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N134" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
         <v>81</v>
@@ -18120,7 +18146,7 @@
         <v>81</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>363</v>
+        <v>570</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
@@ -18129,16 +18155,16 @@
         <v>87</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>81</v>
+        <v>575</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>81</v>
@@ -18152,14 +18178,14 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
@@ -18178,16 +18204,16 @@
         <v>81</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>132</v>
+        <v>353</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>401</v>
+        <v>577</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>402</v>
+        <v>578</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>189</v>
+        <v>579</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -18237,7 +18263,7 @@
         <v>81</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>366</v>
+        <v>576</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>79</v>
@@ -18246,16 +18272,16 @@
         <v>80</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>81</v>
+        <v>575</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>81</v>
@@ -18269,46 +18295,42 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>463</v>
+        <v>81</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>464</v>
+        <v>361</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>81</v>
       </c>
@@ -18356,25 +18378,25 @@
         <v>81</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>466</v>
+        <v>363</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>130</v>
+        <v>364</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>81</v>
@@ -18388,21 +18410,21 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>81</v>
@@ -18414,16 +18436,16 @@
         <v>81</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>591</v>
+        <v>132</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>592</v>
+        <v>401</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>593</v>
+        <v>402</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>594</v>
+        <v>189</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -18449,13 +18471,13 @@
         <v>81</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>525</v>
+        <v>81</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>526</v>
+        <v>81</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>81</v>
@@ -18473,25 +18495,25 @@
         <v>81</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>590</v>
+        <v>366</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>502</v>
+        <v>364</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>81</v>
@@ -18505,14 +18527,14 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
@@ -18525,25 +18547,25 @@
         <v>81</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>596</v>
+        <v>476</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>597</v>
+        <v>477</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>598</v>
+        <v>189</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>599</v>
+        <v>190</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>81</v>
@@ -18592,7 +18614,7 @@
         <v>81</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>595</v>
+        <v>478</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
@@ -18601,29 +18623,971 @@
         <v>80</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>600</v>
+        <v>81</v>
       </c>
       <c r="AJ138" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN138" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO138" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="O139" s="2"/>
+      <c r="P139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q139" s="2"/>
+      <c r="R139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO138" t="s" s="2">
+      <c r="AK139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO139" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" hidden="true">
+      <c r="A140" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O140" s="2"/>
+      <c r="P140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q140" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="R140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO140" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="141" hidden="true">
+      <c r="A141" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="P141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q141" s="2"/>
+      <c r="R141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO141" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142" hidden="true">
+      <c r="A142" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q142" s="2"/>
+      <c r="R142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO142" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="143" hidden="true">
+      <c r="A143" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O143" s="2"/>
+      <c r="P143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q143" s="2"/>
+      <c r="R143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO143" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="144" hidden="true">
+      <c r="A144" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O144" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="P144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q144" s="2"/>
+      <c r="R144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO144" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" hidden="true">
+      <c r="A145" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="O145" s="2"/>
+      <c r="P145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q145" s="2"/>
+      <c r="R145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO145" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="146" hidden="true">
+      <c r="A146" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="P146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q146" s="2"/>
+      <c r="R146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AM146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO146" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO138">
+  <autoFilter ref="A1:AO146">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18633,7 +19597,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI137">
+  <conditionalFormatting sqref="A2:AI145">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaireSDC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
